--- a/sample/test/simple_no_comment.xlsx
+++ b/sample/test/simple_no_comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E15717-AAB0-E944-A7BD-C086FB165EF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D72D9A-0168-7B46-9DAB-D2C3453C32C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
@@ -22,194 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>jellydonuts</author>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5CA81D15-C057-4B13-93D0-12EE1A38D53B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>jellydonuts:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">%%begin eco
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">key: some_int
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">parser: int
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">%%end eco
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">%%begin eco
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">key: some_str
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">parser: string
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">%%end eco
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{3FCE35FB-1558-AB40-906F-01F73B89BCCB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">%%begin eco
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">key: random_value
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">parser: string
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>%%end eco</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -225,39 +37,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,11 +381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,6 +405,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>